--- a/甲方给的吹膜工序文档/A 下拉菜单文件/SOP-MFG-301-R11 吹膜工序清场记录_吴.xlsx
+++ b/甲方给的吹膜工序文档/A 下拉菜单文件/SOP-MFG-301-R11 吹膜工序清场记录_吴.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QMS File-20151124\SOP-MFG-3 生产岗位\301. 吹膜岗位记录表20150701\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitpro\mitprodoc\甲方给的吹膜工序文档\A 下拉菜单文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t xml:space="preserve">颇尔奥星包装科技（北京）有限责任公司 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -168,23 +168,10 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>填写的供料记录是否已归档</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>是 □   否 □</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>是 □   否 □</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>合格  □ 
-不合格□</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>生产指令：</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -194,6 +181,11 @@
   </si>
   <si>
     <t>清场日期：           年   月   日</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -601,29 +593,59 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -631,41 +653,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1000,39 +992,39 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="26"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1053,16 +1045,16 @@
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="22"/>
+      <c r="D6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="28"/>
       <c r="F6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="24" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="9">
@@ -1071,84 +1063,84 @@
       <c r="C7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="26"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="9">
         <v>2</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="26"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="9">
         <v>3</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="26"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="9">
         <v>4</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="26"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="9">
         <v>5</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="26"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="9">
         <v>6</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="9">
@@ -1157,143 +1149,151 @@
       <c r="C13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="22"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="26"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="9">
         <v>2</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="22"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="26"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="9">
         <v>3</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="26"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="9">
         <v>4</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="22"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="26"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="9">
         <v>5</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="9">
         <v>6</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="22"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="26"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="9">
         <v>7</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="22"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="26"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="9">
         <v>8</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
     </row>
     <row r="23" spans="1:6" ht="1.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A4:B4"/>
@@ -1310,14 +1310,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1334,7 +1326,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G5" sqref="G5:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1362,30 +1354,30 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="A3" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
@@ -1411,255 +1403,171 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="29"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="41"/>
-      <c r="B6" s="9">
-        <v>2</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="29"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="39"/>
     </row>
     <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="41"/>
-      <c r="B7" s="9">
+      <c r="A7" s="36"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="39"/>
+    </row>
+    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="36"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="39"/>
+    </row>
+    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="36"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="39"/>
+    </row>
+    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="36"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="39"/>
+    </row>
+    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="41"/>
-      <c r="B8" s="9">
-        <v>4</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="41"/>
-      <c r="B9" s="9">
-        <v>5</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="41"/>
-      <c r="B10" s="9">
-        <v>6</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="9">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="29"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="39"/>
     </row>
     <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="41"/>
-      <c r="B12" s="9">
-        <v>2</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="29"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="39"/>
     </row>
     <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="41"/>
-      <c r="B13" s="9">
-        <v>3</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="29"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="39"/>
     </row>
     <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="41"/>
-      <c r="B14" s="9">
-        <v>4</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="29"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="39"/>
     </row>
     <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="41"/>
-      <c r="B15" s="9">
-        <v>5</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="29"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="41"/>
-      <c r="B16" s="9">
-        <v>6</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="29"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="41"/>
-      <c r="B17" s="9">
-        <v>7</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="29"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="39"/>
     </row>
     <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="41"/>
-      <c r="B18" s="9">
-        <v>8</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="29"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="39"/>
     </row>
     <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="37"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
